--- a/server/internship_records.xlsx
+++ b/server/internship_records.xlsx
@@ -480,72 +480,243 @@
       <c r="A2">
         <v>6</v>
       </c>
+      <c r="B2" t="str">
+        <v>2022</v>
+      </c>
       <c r="C2" t="str">
         <v>2021</v>
+      </c>
+      <c r="D2" t="str">
+        <v>hyyuen</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3033123456</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Yuen Hing Yan</v>
+      </c>
+      <c r="G2" t="str">
+        <v>BEng(CompSc)</v>
+      </c>
+      <c r="X2" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>7</v>
       </c>
+      <c r="B3" t="str">
+        <v>2023</v>
+      </c>
       <c r="C3" t="str">
         <v>2021</v>
+      </c>
+      <c r="D3" t="str">
+        <v>hmchan</v>
+      </c>
+      <c r="E3" t="str">
+        <v>3034123456</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Chan Hew Man</v>
+      </c>
+      <c r="G3" t="str">
+        <v>BBA(IS)</v>
+      </c>
+      <c r="X3" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
         <v>8</v>
       </c>
+      <c r="B4" t="str">
+        <v>2021</v>
+      </c>
       <c r="C4" t="str">
         <v>2021</v>
+      </c>
+      <c r="D4" t="str">
+        <v>kwlam</v>
+      </c>
+      <c r="E4" t="str">
+        <v>3035123456</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Lam Ka Weng</v>
+      </c>
+      <c r="G4" t="str">
+        <v>BEng(CompSc)</v>
+      </c>
+      <c r="X4" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
+      <c r="B5" t="str">
+        <v>2022</v>
+      </c>
       <c r="C5" t="str">
         <v>2021</v>
+      </c>
+      <c r="D5" t="str">
+        <v>janedoe</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3035601111</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Jane Doe</v>
+      </c>
+      <c r="G5" t="str">
+        <v>compsc</v>
+      </c>
+      <c r="X5" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>2</v>
       </c>
+      <c r="B6" t="str">
+        <v>2022</v>
+      </c>
       <c r="C6" t="str">
         <v>2021</v>
+      </c>
+      <c r="D6" t="str">
+        <v>johndoe</v>
+      </c>
+      <c r="E6" t="str">
+        <v>3035602222</v>
+      </c>
+      <c r="F6" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="G6" t="str">
+        <v>compsc</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Micorsoft</v>
+      </c>
+      <c r="O6" t="str">
+        <v>unpaid</v>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>3</v>
       </c>
+      <c r="B7" t="str">
+        <v>2021</v>
+      </c>
       <c r="C7" t="str">
         <v>2021</v>
+      </c>
+      <c r="D7" t="str">
+        <v>alicedoe</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3035603333</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Alice Doe</v>
+      </c>
+      <c r="G7" t="str">
+        <v>compsc</v>
+      </c>
+      <c r="X7" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
         <v>4</v>
       </c>
+      <c r="B8" t="str">
+        <v>2022</v>
+      </c>
       <c r="C8" t="str">
         <v>2022</v>
+      </c>
+      <c r="D8" t="str">
+        <v>bobdoe</v>
+      </c>
+      <c r="E8" t="str">
+        <v>3035604444</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Bob Doe</v>
+      </c>
+      <c r="G8" t="str">
+        <v>is</v>
+      </c>
+      <c r="X8" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9" t="str">
+        <v>2022</v>
+      </c>
       <c r="C9" t="str">
         <v>2021</v>
+      </c>
+      <c r="D9" t="str">
+        <v>davedoe</v>
+      </c>
+      <c r="E9" t="str">
+        <v>3035609999</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Dave Doe</v>
+      </c>
+      <c r="G9" t="str">
+        <v>is</v>
+      </c>
+      <c r="X9" t="str">
+        <v>NA</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="str">
+        <v>2022</v>
+      </c>
       <c r="C10" t="str">
         <v>2021</v>
+      </c>
+      <c r="D10" t="str">
+        <v>chlee</v>
+      </c>
+      <c r="E10" t="str">
+        <v>3036123456</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Lee Chi Hong</v>
+      </c>
+      <c r="G10" t="str">
+        <v>BEng(CompSc)</v>
+      </c>
+      <c r="X10" t="str">
+        <v>NA</v>
       </c>
     </row>
   </sheetData>

--- a/server/internship_records.xlsx
+++ b/server/internship_records.xlsx
@@ -64,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,80 +478,99 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2021</v>
+      <c r="B2" t="str">
+        <v>2023</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3030001111</v>
+      </c>
+      <c r="G2" t="str">
+        <v>compsc</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2021</v>
+      <c r="B3" t="str">
+        <v>2023</v>
+      </c>
+      <c r="E3" t="str">
+        <v>3031112222</v>
+      </c>
+      <c r="G3" t="str">
+        <v>BEng(CompSc)</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>8</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2021</v>
+      <c r="B4" t="str">
+        <v>2023</v>
+      </c>
+      <c r="E4" t="str">
+        <v>3032223333</v>
+      </c>
+      <c r="G4" t="str">
+        <v>BEng(CompSc)</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2021</v>
+      <c r="B5" t="str">
+        <v>2022</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3034449999</v>
+      </c>
+      <c r="G5" t="str">
+        <v>is</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2021</v>
+      <c r="B6" t="str">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="str">
+        <v>3035556666</v>
+      </c>
+      <c r="G6" t="str">
+        <v>BEng(CompSc)</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="str">
-        <v>2021</v>
+      <c r="B7" t="str">
+        <v>2022</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3035602222</v>
+      </c>
+      <c r="G7" t="str">
+        <v>BEng(CompSc)</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44672.333865740744</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2022</v>
+      <c r="B8" t="str">
+        <v>2023</v>
+      </c>
+      <c r="E8" t="str">
+        <v>3037778888</v>
+      </c>
+      <c r="G8" t="str">
+        <v>compsc</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2021</v>
+      <c r="B9" t="str">
+        <v>2023</v>
+      </c>
+      <c r="E9" t="str">
+        <v>3038889999</v>
+      </c>
+      <c r="G9" t="str">
+        <v>compsc</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:X10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:X9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/internship_records.xlsx
+++ b/server/internship_records.xlsx
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,91 +480,70 @@
       <c r="B2" t="str">
         <v>2023</v>
       </c>
-      <c r="E2" t="str">
-        <v>3030001111</v>
-      </c>
-      <c r="G2" t="str">
-        <v>compsc</v>
+      <c r="F2" t="str">
+        <v xml:space="preserve">Jennifer </v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="str">
         <v>2023</v>
       </c>
-      <c r="E3" t="str">
-        <v>3031112222</v>
-      </c>
-      <c r="G3" t="str">
-        <v>BEng(CompSc)</v>
+      <c r="F3" t="str">
+        <v>George Davidson</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
         <v>2023</v>
       </c>
-      <c r="E4" t="str">
-        <v>3032223333</v>
-      </c>
-      <c r="G4" t="str">
-        <v>BEng(CompSc)</v>
+      <c r="F4" t="str">
+        <v>Alexis M.</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="str">
         <v>2022</v>
       </c>
-      <c r="E5" t="str">
-        <v>3034449999</v>
-      </c>
-      <c r="G5" t="str">
-        <v>is</v>
+      <c r="F5" t="str">
+        <v>Alice Wonder</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
         <v>2023</v>
       </c>
-      <c r="E6" t="str">
-        <v>3035556666</v>
-      </c>
-      <c r="G6" t="str">
-        <v>BEng(CompSc)</v>
+      <c r="F6" t="str">
+        <v>Emma Chase</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="str">
         <v>2022</v>
       </c>
-      <c r="E7" t="str">
-        <v>3035602222</v>
-      </c>
-      <c r="G7" t="str">
-        <v>BEng(CompSc)</v>
-      </c>
-      <c r="L7" s="1">
-        <v>44672.333865740744</v>
+      <c r="F7" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="J7" t="str">
+        <v>test</v>
+      </c>
+      <c r="M7" t="str">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="str">
         <v>2023</v>
       </c>
-      <c r="E8" t="str">
-        <v>3037778888</v>
-      </c>
-      <c r="G8" t="str">
-        <v>compsc</v>
+      <c r="F8" t="str">
+        <v xml:space="preserve">Nicholas </v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
         <v>2023</v>
       </c>
-      <c r="E9" t="str">
-        <v>3038889999</v>
-      </c>
-      <c r="G9" t="str">
-        <v>compsc</v>
+      <c r="F9" t="str">
+        <v>Rachel Adams</v>
       </c>
     </row>
   </sheetData>

--- a/server/internship_records.xlsx
+++ b/server/internship_records.xlsx
@@ -397,86 +397,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>acad_year</v>
+        <v>curriculum</v>
       </c>
       <c r="B1" t="str">
+        <v>english_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>placement_id</v>
+      </c>
+      <c r="D1" t="str">
         <v>placement_year</v>
+      </c>
+      <c r="E1" t="str">
+        <v>company_name</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2021</v>
+        <v>BBA(IS)</v>
       </c>
       <c r="B2" t="str">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B6" t="str">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B7" t="str">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B8" t="str">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B9" t="str">
+        <v>Bob Doe</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="str">
         <v>2022</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/internship_records.xlsx
+++ b/server/internship_records.xlsx
@@ -397,17 +397,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>curriculum</v>
+        <v>acad_year</v>
       </c>
       <c r="B1" t="str">
-        <v>english_name</v>
+        <v>placement_status</v>
       </c>
       <c r="C1" t="str">
         <v>placement_id</v>
@@ -418,24 +418,174 @@
       <c r="E1" t="str">
         <v>company_name</v>
       </c>
+      <c r="F1" t="str">
+        <v>job_title</v>
+      </c>
+      <c r="G1" t="str">
+        <v>job_nature</v>
+      </c>
+      <c r="H1" t="str">
+        <v>employment_duration</v>
+      </c>
+      <c r="I1" t="str">
+        <v>start_date</v>
+      </c>
+      <c r="J1" t="str">
+        <v>working_location</v>
+      </c>
+      <c r="K1" t="str">
+        <v>payment_type</v>
+      </c>
+      <c r="L1" t="str">
+        <v>supervisor_name</v>
+      </c>
+      <c r="M1" t="str">
+        <v>consent_form</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>BBA(IS)</v>
+        <v>2021</v>
       </c>
       <c r="B2" t="str">
-        <v>Bob Doe</v>
+        <v>NA</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="str">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="str">
+        <v>NA</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Incomplete</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2022</v>
+      </c>
+      <c r="E4" t="str">
+        <v>FDM</v>
+      </c>
+      <c r="F4" t="str">
+        <v>CRM Analytics Intern</v>
+      </c>
+      <c r="G4" t="str">
+        <v>I'm not sure yet</v>
+      </c>
+      <c r="H4" t="str">
+        <v>5</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Malaysia</v>
+      </c>
+      <c r="K4" t="str">
+        <v>paid</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Wong Man Yi</v>
+      </c>
+      <c r="M4" t="str">
+        <v>upload\consent\consent-1650097322848-中文.pdf</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="str">
+        <v>NA</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="str">
+        <v>2022</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Micorsoft</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Software Engineer Intern</v>
+      </c>
+      <c r="H5" t="str">
+        <v>12</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Hong Kong</v>
+      </c>
+      <c r="K5" t="str">
+        <v>paid</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Wong Man Yi</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="str">
+        <v>NA</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="str">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="str">
+        <v>NA</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="str">
+        <v>NA</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" t="str">
         <v>2022</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/internship_records.xlsx
+++ b/server/internship_records.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,185 +407,38 @@
         <v>acad_year</v>
       </c>
       <c r="B1" t="str">
-        <v>placement_status</v>
+        <v>english_name</v>
       </c>
       <c r="C1" t="str">
         <v>placement_id</v>
       </c>
       <c r="D1" t="str">
-        <v>placement_year</v>
+        <v>company_name</v>
       </c>
       <c r="E1" t="str">
-        <v>company_name</v>
+        <v>working_location</v>
       </c>
       <c r="F1" t="str">
-        <v>job_title</v>
-      </c>
-      <c r="G1" t="str">
-        <v>job_nature</v>
-      </c>
-      <c r="H1" t="str">
-        <v>employment_duration</v>
-      </c>
-      <c r="I1" t="str">
-        <v>start_date</v>
-      </c>
-      <c r="J1" t="str">
-        <v>working_location</v>
-      </c>
-      <c r="K1" t="str">
         <v>payment_type</v>
-      </c>
-      <c r="L1" t="str">
-        <v>supervisor_name</v>
-      </c>
-      <c r="M1" t="str">
-        <v>consent_form</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="str">
-        <v>NA</v>
+        <v>Bob Doe</v>
       </c>
       <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="str">
-        <v>NA</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Incomplete</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2022</v>
-      </c>
-      <c r="E4" t="str">
-        <v>FDM</v>
-      </c>
-      <c r="F4" t="str">
-        <v>CRM Analytics Intern</v>
-      </c>
-      <c r="G4" t="str">
-        <v>I'm not sure yet</v>
-      </c>
-      <c r="H4" t="str">
-        <v>5</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Malaysia</v>
-      </c>
-      <c r="K4" t="str">
-        <v>paid</v>
-      </c>
-      <c r="L4" t="str">
-        <v>Wong Man Yi</v>
-      </c>
-      <c r="M4" t="str">
-        <v>upload\consent\consent-1650097322848-中文.pdf</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="str">
-        <v>NA</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="str">
-        <v>2022</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Micorsoft</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Software Engineer Intern</v>
-      </c>
-      <c r="H5" t="str">
-        <v>12</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Hong Kong</v>
-      </c>
-      <c r="K5" t="str">
-        <v>paid</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Wong Man Yi</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B6" t="str">
-        <v>NA</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" t="str">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B7" t="str">
-        <v>NA</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>2021</v>
-      </c>
-      <c r="B8" t="str">
-        <v>NA</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2022</v>
+        <v>4</v>
+      </c>
+      <c r="F2" t="str">
+        <v>unpaid</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/internship_records.xlsx
+++ b/server/internship_records.xlsx
@@ -397,48 +397,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>acad_year</v>
+        <v>placement_id</v>
       </c>
       <c r="B1" t="str">
-        <v>english_name</v>
+        <v>username</v>
       </c>
       <c r="C1" t="str">
-        <v>placement_id</v>
+        <v>placement_year</v>
       </c>
       <c r="D1" t="str">
         <v>company_name</v>
       </c>
       <c r="E1" t="str">
+        <v>job_nature</v>
+      </c>
+      <c r="F1" t="str">
+        <v>employment_duration</v>
+      </c>
+      <c r="G1" t="str">
         <v>working_location</v>
-      </c>
-      <c r="F1" t="str">
-        <v>payment_type</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="str">
+        <v>bobdoe</v>
+      </c>
+      <c r="C2" t="str">
         <v>2022</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Bob Doe</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="str">
-        <v>unpaid</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/internship_records.xlsx
+++ b/server/internship_records.xlsx
@@ -397,48 +397,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>placement_id</v>
+        <v>company_name</v>
       </c>
       <c r="B1" t="str">
-        <v>username</v>
+        <v>job_nature</v>
       </c>
       <c r="C1" t="str">
-        <v>placement_year</v>
-      </c>
-      <c r="D1" t="str">
-        <v>company_name</v>
-      </c>
-      <c r="E1" t="str">
-        <v>job_nature</v>
-      </c>
-      <c r="F1" t="str">
-        <v>employment_duration</v>
-      </c>
-      <c r="G1" t="str">
-        <v>working_location</v>
+        <v>salary</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="str">
-        <v>bobdoe</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2022</v>
-      </c>
-    </row>
+    <row r="2"/>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>